--- a/data_output/prism_passive/all_passive_out_elong_GMapo_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-2.2114890992577472</v>
+        <v>-2.2114891169656232</v>
       </c>
       <c r="C2">
-        <v>-5.8508278854994273</v>
+        <v>-5.8508278506921556</v>
       </c>
       <c r="D2">
-        <v>-7.1853110952273056</v>
+        <v>-7.1853108415621136</v>
       </c>
       <c r="E2">
-        <v>-7.6627085431307478</v>
+        <v>-7.6627083241863545</v>
       </c>
       <c r="F2">
-        <v>-18.177695657422476</v>
+        <v>-18.177695646631634</v>
       </c>
       <c r="G2">
-        <v>8.9034922020081524</v>
+        <v>8.9034922017931137</v>
       </c>
       <c r="H2">
-        <v>-5.1856679902495131</v>
+        <v>-5.1856680211721908</v>
       </c>
       <c r="I2">
-        <v>6.3344048227966141</v>
+        <v>6.3344048321151547</v>
       </c>
       <c r="J2">
-        <v>3.3122538386359253</v>
+        <v>3.3122538213065553</v>
       </c>
       <c r="K2">
-        <v>-16.432510475262546</v>
+        <v>-16.43251051347265</v>
       </c>
       <c r="L2">
-        <v>5.7029379824630837</v>
+        <v>5.7029380099042442</v>
       </c>
       <c r="M2">
-        <v>-2.6220358531500949</v>
+        <v>-2.6220358398703354</v>
       </c>
       <c r="N2">
-        <v>-0.32576171442062218</v>
+        <v>-0.32576168981049136</v>
       </c>
       <c r="O2">
-        <v>11.017133514465328</v>
+        <v>11.017133541382449</v>
       </c>
       <c r="P2">
-        <v>-2.4083244232698462</v>
+        <v>-2.4083243640580747</v>
       </c>
       <c r="Q2">
-        <v>-5.0300033653432479</v>
+        <v>-5.0300033543440748</v>
       </c>
       <c r="R2">
-        <v>-1.6055091850088274</v>
+        <v>-1.6055091433320001</v>
       </c>
       <c r="S2">
-        <v>7.3457208051934231</v>
+        <v>7.3457208067578108</v>
       </c>
       <c r="T2">
-        <v>-8.298921212488068</v>
+        <v>-8.2989211897770474</v>
       </c>
       <c r="U2">
-        <v>7.1160989825928027</v>
+        <v>7.1160989531789482</v>
       </c>
       <c r="V2">
-        <v>-10.476523368849683</v>
+        <v>-10.476523378762607</v>
       </c>
       <c r="W2">
-        <v>10.58125676365384</v>
+        <v>10.581256808471096</v>
       </c>
       <c r="X2">
-        <v>-2.7228067974699854</v>
+        <v>-2.7228068017524549</v>
       </c>
       <c r="Y2">
-        <v>-3.1674054429452099</v>
+        <v>-3.1674054475426487</v>
       </c>
       <c r="Z2">
-        <v>-24.052315654189428</v>
+        <v>-24.052315655852084</v>
       </c>
       <c r="AA2">
-        <v>8.7557392885404823</v>
+        <v>8.7557392360559163</v>
       </c>
       <c r="AB2">
-        <v>-6.3486615625275533</v>
+        <v>-6.3486615531469681</v>
       </c>
       <c r="AC2">
-        <v>4.4166849137614861</v>
+        <v>4.4166849245385151</v>
       </c>
       <c r="AD2">
-        <v>-10.564138658424298</v>
+        <v>-10.564138673817695</v>
       </c>
       <c r="AE2">
-        <v>-35.634563775495053</v>
+        <v>-35.634563747031137</v>
       </c>
       <c r="AF2">
-        <v>-3.5830941161042063</v>
+        <v>-3.5830940910310005</v>
       </c>
       <c r="AG2">
-        <v>0.71694386812312416</v>
+        <v>0.71694396334072508</v>
       </c>
       <c r="AH2">
-        <v>-3.7039810051513768</v>
+        <v>-3.7039810066769689</v>
       </c>
       <c r="AI2">
-        <v>37.078709590825653</v>
+        <v>37.07870955582203</v>
       </c>
       <c r="AJ2">
-        <v>-4.3089579960585667</v>
+        <v>-4.3089579707559977</v>
       </c>
       <c r="AK2">
-        <v>-1.4493500034996032</v>
+        <v>-1.4493500398640151</v>
       </c>
       <c r="AL2">
-        <v>-10.613562277268613</v>
+        <v>-10.613562208104412</v>
       </c>
       <c r="AM2">
-        <v>-7.4915608073297335E-2</v>
+        <v>-7.491559660297753E-2</v>
       </c>
       <c r="AN2">
-        <v>-0.25453659703498488</v>
+        <v>-0.25453656396422275</v>
       </c>
       <c r="AO2">
-        <v>-9.8509142729690495</v>
+        <v>-9.8509142028146925</v>
       </c>
       <c r="AP2">
-        <v>1.5510289584985628</v>
+        <v>1.5510289846036756</v>
       </c>
       <c r="AQ2">
-        <v>-2.5754543691486163</v>
+        <v>-2.5754543249959454</v>
       </c>
       <c r="AR2">
-        <v>0.70862268273117479</v>
+        <v>0.70862268684192031</v>
       </c>
       <c r="AS2">
-        <v>-6.2507416331619083</v>
+        <v>-6.2507415719231858</v>
       </c>
       <c r="AT2">
-        <v>-2.8505678395134169</v>
+        <v>-2.8505678111174433</v>
       </c>
       <c r="AU2">
-        <v>-1.4194910038412445</v>
+        <v>-1.4194909783775529</v>
       </c>
       <c r="AV2">
-        <v>-7.7490296046149751</v>
+        <v>-7.7490295711045576</v>
       </c>
       <c r="AW2">
-        <v>-3.6272033120086462</v>
+        <v>-3.6272032778520042</v>
       </c>
       <c r="AX2">
-        <v>-7.8409223977269278</v>
+        <v>-7.8409222814761108</v>
       </c>
       <c r="AY2">
-        <v>1.1091822876919224</v>
+        <v>1.1091823121068529</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.4913575739517313</v>
+        <v>3.4913575835002035</v>
       </c>
       <c r="C3">
-        <v>-0.54101790860489984</v>
+        <v>-0.54101789588011684</v>
       </c>
       <c r="D3">
-        <v>-0.50389196471653008</v>
+        <v>-0.50389192611379485</v>
       </c>
       <c r="E3">
-        <v>-19.99629082835412</v>
+        <v>-19.996290831750002</v>
       </c>
       <c r="F3">
-        <v>7.0728142627342692</v>
+        <v>7.0728142129191411</v>
       </c>
       <c r="G3">
-        <v>0.66899100731663452</v>
+        <v>0.6689909808838479</v>
       </c>
       <c r="H3">
-        <v>2.0812040918766002</v>
+        <v>2.0812041311191507</v>
       </c>
       <c r="I3">
-        <v>1.2404370308866817</v>
+        <v>1.2404369999167386</v>
       </c>
       <c r="J3">
-        <v>-0.616811866820143</v>
+        <v>-0.6168118610554103</v>
       </c>
       <c r="K3">
-        <v>29.044096429012129</v>
+        <v>29.04409643144173</v>
       </c>
       <c r="L3">
-        <v>25.062559781387719</v>
+        <v>25.062559779431524</v>
       </c>
       <c r="M3">
-        <v>-6.5221487532016909</v>
+        <v>-6.5220531552150192</v>
       </c>
       <c r="N3">
-        <v>-0.56162115472957908</v>
+        <v>-0.56162115703355653</v>
       </c>
       <c r="O3">
-        <v>3.4386750783412765</v>
+        <v>3.4386750814914819</v>
       </c>
       <c r="P3">
-        <v>-33.461546606613126</v>
+        <v>-33.461546561776998</v>
       </c>
       <c r="Q3">
-        <v>-5.3234537408364702</v>
+        <v>-5.3234536992553672</v>
       </c>
       <c r="R3">
-        <v>3.6349435819834355</v>
+        <v>3.6349435942149171</v>
       </c>
       <c r="S3">
-        <v>7.9915298277734337</v>
+        <v>7.9915298309595357</v>
       </c>
       <c r="T3">
-        <v>8.7502302647560555</v>
+        <v>8.7502302505939724</v>
       </c>
       <c r="U3">
-        <v>-5.6781800429966722</v>
+        <v>-5.6781800430223512</v>
       </c>
       <c r="V3">
-        <v>8.6004094450115076</v>
+        <v>8.6004094504897068</v>
       </c>
       <c r="W3">
-        <v>0.98138554442434156</v>
+        <v>0.98138551001120788</v>
       </c>
       <c r="X3">
-        <v>10.782317408887025</v>
+        <v>10.78231737665601</v>
       </c>
       <c r="Y3">
-        <v>6.0347601290381476</v>
+        <v>6.0347601596918992</v>
       </c>
       <c r="Z3">
-        <v>-6.6680105290410552</v>
+        <v>-6.6680104998899878</v>
       </c>
       <c r="AA3">
-        <v>-0.36295964902797095</v>
+        <v>-0.36295964554527416</v>
       </c>
       <c r="AB3">
-        <v>-4.9607476616892541</v>
+        <v>-4.9607476913027142</v>
       </c>
       <c r="AC3">
-        <v>-0.61949682081481683</v>
+        <v>-0.61949682852579713</v>
       </c>
       <c r="AD3">
-        <v>-15.25102284879236</v>
+        <v>-15.251022926800232</v>
       </c>
       <c r="AE3">
-        <v>-7.0276812520025089</v>
+        <v>-7.0276813108970089</v>
       </c>
       <c r="AF3">
-        <v>-0.76269431062752346</v>
+        <v>-0.76269430401225691</v>
       </c>
       <c r="AG3">
-        <v>9.2406771266542336</v>
+        <v>9.240676894199396</v>
       </c>
       <c r="AH3">
-        <v>5.8562763476809323</v>
+        <v>5.856276394335822</v>
       </c>
       <c r="AI3">
-        <v>-1.9723871887724727</v>
+        <v>-1.9723872200555519</v>
       </c>
       <c r="AJ3">
-        <v>-0.84976510660548854</v>
+        <v>-0.84976508942941109</v>
       </c>
       <c r="AK3">
-        <v>21.459417429409513</v>
+        <v>21.459417456950945</v>
       </c>
       <c r="AL3">
-        <v>-3.009735947916198</v>
+        <v>-3.0097359014147855</v>
       </c>
       <c r="AM3">
-        <v>-1.8212536093929259</v>
+        <v>-1.8212535532185825</v>
       </c>
       <c r="AN3">
-        <v>-0.10215087317450866</v>
+        <v>-0.10215086999548362</v>
       </c>
       <c r="AO3">
-        <v>17.425063938467673</v>
+        <v>17.425063963572654</v>
       </c>
       <c r="AP3">
-        <v>-10.914750784201971</v>
+        <v>-10.914750798734588</v>
       </c>
       <c r="AQ3">
-        <v>-5.4192311088649774</v>
+        <v>-5.4192310475712304</v>
       </c>
       <c r="AR3">
-        <v>-3.1917690741108657</v>
+        <v>-3.1917690526191791</v>
       </c>
       <c r="AS3">
-        <v>-1.8440555384192976</v>
+        <v>-1.8440555530756058</v>
       </c>
       <c r="AT3">
-        <v>-6.0927054426469454</v>
+        <v>-6.0927053851303441</v>
       </c>
       <c r="AU3">
-        <v>-3.0210691559580027</v>
+        <v>-3.0210691633430713</v>
       </c>
       <c r="AV3">
-        <v>-2.3274087327668695</v>
+        <v>-2.3274086690598068</v>
       </c>
       <c r="AW3">
-        <v>-6.2742915150414547</v>
+        <v>-6.2742915637340673</v>
       </c>
       <c r="AX3">
-        <v>-37.47104949381675</v>
+        <v>-37.471049531479963</v>
       </c>
       <c r="AY3">
-        <v>-20.02510559061642</v>
+        <v>-20.025105579115433</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_GMapo_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_trial_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,313 +401,307 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>-2.2114891169656232</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>-5.8508278506921556</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-7.1853108415621136</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-7.6627083241863545</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-18.177695646631634</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>8.9034922017931137</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-5.1856680211721908</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6.3344048321151547</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3.3122538213065553</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-16.43251051347265</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>5.7029380099042442</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-2.6220358398703354</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>-0.32576168981049136</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>11.017133541382449</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>-2.4083243640580747</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-5.0300033543440748</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-1.6055091433320001</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>7.3457208067578108</v>
+        <v>7.3457874667578267</v>
       </c>
       <c r="T2">
-        <v>-8.2989211897770474</v>
+        <v>-8.2988878597770395</v>
       </c>
       <c r="U2">
-        <v>7.1160989531789482</v>
+        <v>7.1161322831789562</v>
       </c>
       <c r="V2">
-        <v>-10.476523378762607</v>
+        <v>-10.476490048762628</v>
       </c>
       <c r="W2">
-        <v>10.581256808471096</v>
+        <v>10.581323468471084</v>
       </c>
       <c r="X2">
-        <v>-2.7228068017524549</v>
+        <v>-2.7228734617524708</v>
       </c>
       <c r="Y2">
-        <v>-3.1674054475426487</v>
+        <v>-3.1674387775426567</v>
       </c>
       <c r="Z2">
-        <v>-24.052315655852084</v>
+        <v>-24.0523823158521</v>
       </c>
       <c r="AA2">
-        <v>8.7557392360559163</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>-6.3486615531469681</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>4.4166849245385151</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>-10.564138673817695</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-35.634563747031137</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>-3.5830940910310005</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.71694396334072508</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>-3.7039810066769689</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>37.07870955582203</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-4.3089579707559977</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>-1.4493500398640151</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-10.613562208104412</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-7.491559660297753E-2</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>-0.25453656396422275</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-9.8509142028146925</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5510289846036756</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-2.5754543249959454</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0.70862268684192031</v>
       </c>
       <c r="AS2">
-        <v>-6.2507415719231858</v>
+        <v>-6.2507082419231779</v>
       </c>
       <c r="AT2">
-        <v>-2.8505678111174433</v>
+        <v>-2.8505344811174353</v>
       </c>
       <c r="AU2">
         <v>-1.4194909783775529</v>
       </c>
       <c r="AV2">
-        <v>-7.7490295711045576</v>
+        <v>-7.7489962411045781</v>
       </c>
       <c r="AW2">
-        <v>-3.6272032778520042</v>
+        <v>-3.6272699378520201</v>
       </c>
       <c r="AX2">
-        <v>-7.8409222814761108</v>
+        <v>-7.8409889414760983</v>
       </c>
       <c r="AY2">
-        <v>1.1091823121068529</v>
+        <v>1.1091489821068592</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>3.4913575835002035</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.54101789588011684</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.50389192611379485</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-19.996290831750002</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>7.0728142129191411</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.6689909808838479</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.0812041311191507</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.2404369999167386</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.6168118610554103</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>29.04409643144173</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>25.062559779431524</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-6.5220531552150192</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>-0.56162115703355653</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>3.4386750814914819</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-33.461546561776998</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-5.3234536992553672</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>3.6349435942149171</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>7.9915298309595357</v>
       </c>
       <c r="T3">
-        <v>8.7502302505939724</v>
+        <v>8.7502635805939804</v>
       </c>
       <c r="U3">
-        <v>-5.6781800430223512</v>
+        <v>-5.6781467130223433</v>
       </c>
       <c r="V3">
-        <v>8.6004094504897068</v>
+        <v>8.6004094504896784</v>
       </c>
       <c r="W3">
-        <v>0.98138551001120788</v>
+        <v>0.9813855100112221</v>
       </c>
       <c r="X3">
-        <v>10.78231737665601</v>
+        <v>10.782384036656012</v>
       </c>
       <c r="Y3">
-        <v>6.0347601596918992</v>
+        <v>32.064760159691915</v>
       </c>
       <c r="Z3">
-        <v>-6.6680104998899878</v>
+        <v>-1.2246771598899926</v>
       </c>
       <c r="AA3">
-        <v>-0.36295964554527416</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>-4.9607476913027142</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>-0.61949682852579713</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>-15.251022926800232</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-7.0276813108970089</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>-0.76269430401225691</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>9.240676894199396</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>5.856276394335822</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>-1.9723872200555519</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.84976508942941109</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>21.459417456950945</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-3.0097359014147855</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-1.8212535532185825</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-0.10215086999548362</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>17.425063963572654</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-10.914750798734588</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-5.4192310475712304</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>-3.1917690526191791</v>
+        <v>-3.1917023926192059</v>
       </c>
       <c r="AS3">
-        <v>-1.8440555530756058</v>
+        <v>-1.8440888830756137</v>
       </c>
       <c r="AT3">
-        <v>-6.0927053851303441</v>
+        <v>-6.0926720551303362</v>
       </c>
       <c r="AU3">
         <v>-3.0210691633430713</v>
       </c>
       <c r="AV3">
-        <v>-2.3274086690598068</v>
+        <v>-2.3274753290598227</v>
       </c>
       <c r="AW3">
-        <v>-6.2742915637340673</v>
+        <v>-6.2742582337340593</v>
       </c>
       <c r="AX3">
-        <v>-37.471049531479963</v>
+        <v>-33.297782861479931</v>
       </c>
       <c r="AY3">
-        <v>-20.025105579115433</v>
+        <v>22.394861090884589</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_GMapo_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-2.2114224392577313</v>
+        <v>11.017066881382448</v>
       </c>
       <c r="C2">
-        <v>-1.080861215499425</v>
+        <v>-1.6054758133320206</v>
       </c>
       <c r="D2">
-        <v>-7.1853444252273135</v>
+        <v>-0.25453656396425117</v>
       </c>
       <c r="E2">
-        <v>-14.976041883130762</v>
+        <v>-2.5754209949959659</v>
       </c>
       <c r="F2">
         <v>-18.177662327422468</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.4913575739517313</v>
+        <v>3.4386750814914819</v>
       </c>
       <c r="C3">
-        <v>0.70571542139509802</v>
+        <v>3.635010254214933</v>
       </c>
       <c r="D3">
-        <v>-0.50382530471654263</v>
+        <v>-0.1021508699954552</v>
       </c>
       <c r="E3">
-        <v>-19.996290828354091</v>
+        <v>-5.8337590266512791</v>
       </c>
       <c r="F3">
         <v>7.0727809327342612</v>

--- a/data_output/prism_passive/all_passive_out_elong_GMapo_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_trial_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-2.2114224392577313</v>
+        <v>16.427638310189508</v>
       </c>
       <c r="C2">
-        <v>-1.080861215499425</v>
+        <v>11.017066881382448</v>
       </c>
       <c r="D2">
-        <v>-7.1853444252273135</v>
+        <v>13.448417733397036</v>
       </c>
       <c r="E2">
-        <v>-14.976041883130762</v>
+        <v>-0.25453656396425117</v>
       </c>
       <c r="F2">
         <v>-18.177662327422468</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.4913575739517313</v>
+        <v>34.135045502966477</v>
       </c>
       <c r="C3">
-        <v>0.70571542139509802</v>
+        <v>3.4386750814914819</v>
       </c>
       <c r="D3">
-        <v>-0.50382530471654263</v>
+        <v>1.7820797767813872</v>
       </c>
       <c r="E3">
-        <v>-19.996290828354091</v>
+        <v>-0.1021508699954552</v>
       </c>
       <c r="F3">
         <v>7.0727809327342612</v>

--- a/data_output/prism_passive/all_passive_out_elong_GMapo_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_trial_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>-2.2114224569656074</v>
+      </c>
+      <c r="C2">
+        <v>-1.0808611806921533</v>
+      </c>
+      <c r="D2">
+        <v>-7.1853441715621216</v>
+      </c>
+      <c r="E2">
+        <v>-14.976041664186369</v>
+      </c>
+      <c r="F2">
+        <v>-18.177662316631626</v>
+      </c>
+      <c r="G2">
+        <v>8.9035588617931012</v>
+      </c>
+      <c r="H2">
+        <v>-5.1857013511721703</v>
+      </c>
+      <c r="I2">
+        <v>6.3344048321151547</v>
+      </c>
+      <c r="J2">
+        <v>3.3122538213065837</v>
+      </c>
+      <c r="K2">
+        <v>4.6107894865273522</v>
+      </c>
+      <c r="L2">
+        <v>5.7030046699042458</v>
+      </c>
+      <c r="M2">
+        <v>-2.6220691698703149</v>
+      </c>
+      <c r="N2">
         <v>16.427638310189508</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>11.017066881382448</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>-2.4083243640580747</v>
+      </c>
+      <c r="Q2">
+        <v>-11.343270014344057</v>
+      </c>
+      <c r="R2">
+        <v>-1.6054758133320206</v>
+      </c>
+      <c r="S2">
+        <v>7.3457874667578267</v>
+      </c>
+      <c r="T2">
+        <v>-8.2988878597770395</v>
+      </c>
+      <c r="U2">
+        <v>7.1161322831789562</v>
+      </c>
+      <c r="V2">
+        <v>-10.476490048762628</v>
+      </c>
+      <c r="W2">
+        <v>10.581323468471084</v>
+      </c>
+      <c r="X2">
+        <v>-2.7228734617524708</v>
+      </c>
+      <c r="Y2">
+        <v>-3.1674387775426567</v>
+      </c>
+      <c r="Z2">
+        <v>-24.0523823158521</v>
+      </c>
+      <c r="AA2">
+        <v>8.7557392360559021</v>
+      </c>
+      <c r="AB2">
+        <v>13.274638446853047</v>
+      </c>
+      <c r="AC2">
+        <v>4.4166182645385277</v>
+      </c>
+      <c r="AD2">
+        <v>-3.0175053338176951</v>
+      </c>
+      <c r="AE2">
+        <v>-35.634563747031137</v>
+      </c>
+      <c r="AF2">
+        <v>-3.5830940910310005</v>
+      </c>
+      <c r="AG2">
+        <v>0.71697729334073301</v>
+      </c>
+      <c r="AH2">
+        <v>-3.7039810066769689</v>
+      </c>
+      <c r="AI2">
+        <v>37.07874288582201</v>
+      </c>
+      <c r="AJ2">
+        <v>-2.5190246307559789</v>
+      </c>
+      <c r="AK2">
+        <v>-1.4493833698639946</v>
+      </c>
+      <c r="AL2">
+        <v>-10.61359553810442</v>
+      </c>
+      <c r="AM2">
         <v>13.448417733397036</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>-0.25453656396425117</v>
       </c>
-      <c r="F2">
-        <v>-18.177662327422468</v>
-      </c>
-      <c r="G2">
-        <v>8.9035588620081398</v>
-      </c>
-      <c r="H2">
-        <v>-5.1857013202494926</v>
-      </c>
-      <c r="I2">
-        <v>6.3344048227966141</v>
-      </c>
-      <c r="J2">
-        <v>3.3122538386359537</v>
-      </c>
-      <c r="K2">
-        <v>4.6107895247374557</v>
-      </c>
-      <c r="L2">
-        <v>5.7030046424630854</v>
-      </c>
-      <c r="M2">
-        <v>-2.6220691831500744</v>
-      </c>
-      <c r="N2">
-        <v>16.427638285579377</v>
-      </c>
-      <c r="O2">
-        <v>11.017066854465327</v>
-      </c>
-      <c r="P2">
-        <v>-2.4083244232698462</v>
-      </c>
-      <c r="Q2">
-        <v>-11.34327002534323</v>
-      </c>
-      <c r="R2">
-        <v>-1.6054758550088479</v>
-      </c>
-      <c r="S2">
-        <v>7.3457874651934389</v>
-      </c>
-      <c r="T2">
-        <v>-8.2988878824880601</v>
-      </c>
-      <c r="U2">
-        <v>7.1161323125928106</v>
-      </c>
-      <c r="V2">
-        <v>-10.476490038849704</v>
-      </c>
-      <c r="W2">
-        <v>10.581323423653828</v>
-      </c>
-      <c r="X2">
-        <v>-2.7228734574700013</v>
-      </c>
-      <c r="Y2">
-        <v>-3.1674387729452178</v>
-      </c>
-      <c r="Z2">
-        <v>-24.052382314189444</v>
-      </c>
-      <c r="AA2">
-        <v>8.7557392885404681</v>
-      </c>
-      <c r="AB2">
-        <v>13.274638437472461</v>
-      </c>
-      <c r="AC2">
-        <v>4.4166182537614986</v>
-      </c>
-      <c r="AD2">
-        <v>-3.0175053184242984</v>
-      </c>
-      <c r="AE2">
-        <v>-35.634563775495053</v>
-      </c>
-      <c r="AF2">
-        <v>-3.5830941161042063</v>
-      </c>
-      <c r="AG2">
-        <v>0.7169771981231321</v>
-      </c>
-      <c r="AH2">
-        <v>-3.7039810051513768</v>
-      </c>
-      <c r="AI2">
-        <v>37.078742920825633</v>
-      </c>
-      <c r="AJ2">
-        <v>-2.5190246560585479</v>
-      </c>
-      <c r="AK2">
-        <v>-1.4493833334995827</v>
-      </c>
-      <c r="AL2">
-        <v>-10.613595607268621</v>
-      </c>
-      <c r="AM2">
-        <v>13.448417721926717</v>
-      </c>
-      <c r="AN2">
-        <v>-0.2545365970350133</v>
-      </c>
       <c r="AO2">
-        <v>-9.850947602969029</v>
+        <v>-9.8509475328146721</v>
       </c>
       <c r="AP2">
-        <v>1.1266791840882604</v>
+        <v>1.1266792297053598</v>
       </c>
       <c r="AQ2">
-        <v>-2.5754210391486367</v>
+        <v>-2.5754209949959659</v>
       </c>
       <c r="AR2">
-        <v>0.70862268273117479</v>
+        <v>0.70862268684192031</v>
       </c>
       <c r="AS2">
-        <v>-6.2507083031619004</v>
+        <v>-6.2507082419231779</v>
       </c>
       <c r="AT2">
-        <v>-2.8505345095134089</v>
+        <v>-2.8505344811174353</v>
       </c>
       <c r="AU2">
-        <v>-1.4194910038412445</v>
+        <v>-1.4194909783775529</v>
       </c>
       <c r="AV2">
-        <v>-7.7489962746149956</v>
+        <v>-7.7489962411045781</v>
       </c>
       <c r="AW2">
-        <v>-3.6272699720086621</v>
+        <v>-3.6272699378520201</v>
       </c>
       <c r="AX2">
-        <v>-7.8409890577269152</v>
+        <v>-7.8409889414760983</v>
       </c>
       <c r="AY2">
-        <v>1.1091489576919287</v>
+        <v>1.1091489821068592</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>3.4913575835002035</v>
+      </c>
+      <c r="C3">
+        <v>0.70571543411988102</v>
+      </c>
+      <c r="D3">
+        <v>-0.5038252661138074</v>
+      </c>
+      <c r="E3">
+        <v>-19.996290831749974</v>
+      </c>
+      <c r="F3">
+        <v>7.0727808829191332</v>
+      </c>
+      <c r="G3">
+        <v>0.6689909808838479</v>
+      </c>
+      <c r="H3">
+        <v>2.0811374711191775</v>
+      </c>
+      <c r="I3">
+        <v>1.2403703399167227</v>
+      </c>
+      <c r="J3">
+        <v>9.8998881389445899</v>
+      </c>
+      <c r="K3">
+        <v>29.04409643144173</v>
+      </c>
+      <c r="L3">
+        <v>25.062526449431516</v>
+      </c>
+      <c r="M3">
+        <v>-6.5220198252150112</v>
+      </c>
+      <c r="N3">
         <v>34.135045502966477</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>3.4386750814914819</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>-33.461513231776991</v>
+      </c>
+      <c r="Q3">
+        <v>-5.3235203592553546</v>
+      </c>
+      <c r="R3">
+        <v>3.635010254214933</v>
+      </c>
+      <c r="S3">
+        <v>7.9915298309595357</v>
+      </c>
+      <c r="T3">
+        <v>8.7502635805939804</v>
+      </c>
+      <c r="U3">
+        <v>-5.6781467130223433</v>
+      </c>
+      <c r="V3">
+        <v>8.6004094504896784</v>
+      </c>
+      <c r="W3">
+        <v>1.1573346630251251</v>
+      </c>
+      <c r="X3">
+        <v>10.782384036656012</v>
+      </c>
+      <c r="Y3">
+        <v>32.064760159691915</v>
+      </c>
+      <c r="Z3">
+        <v>-1.2246771598899926</v>
+      </c>
+      <c r="AA3">
+        <v>-0.36295964554527416</v>
+      </c>
+      <c r="AB3">
+        <v>-1.9274810213027109</v>
+      </c>
+      <c r="AC3">
+        <v>-0.61949682852579713</v>
+      </c>
+      <c r="AD3">
+        <v>-15.25105625680024</v>
+      </c>
+      <c r="AE3">
+        <v>-7.0276813108970373</v>
+      </c>
+      <c r="AF3">
+        <v>-0.76266097401224897</v>
+      </c>
+      <c r="AG3">
+        <v>9.240676894199396</v>
+      </c>
+      <c r="AH3">
+        <v>7.1921602193947933</v>
+      </c>
+      <c r="AI3">
+        <v>-0.60578722005554653</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.84973175942940316</v>
+      </c>
+      <c r="AK3">
+        <v>21.459417456950973</v>
+      </c>
+      <c r="AL3">
+        <v>-3.0097359014147855</v>
+      </c>
+      <c r="AM3">
         <v>1.7820797767813872</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-0.1021508699954552</v>
       </c>
-      <c r="F3">
-        <v>7.0727809327342612</v>
-      </c>
-      <c r="G3">
-        <v>0.66899100731663452</v>
-      </c>
-      <c r="H3">
-        <v>2.0811374318766269</v>
-      </c>
-      <c r="I3">
-        <v>1.2403703708866658</v>
-      </c>
-      <c r="J3">
-        <v>9.8998881331798572</v>
-      </c>
-      <c r="K3">
-        <v>29.044096429012129</v>
-      </c>
-      <c r="L3">
-        <v>25.062526451387711</v>
-      </c>
-      <c r="M3">
-        <v>-6.5221154232016829</v>
-      </c>
-      <c r="N3">
-        <v>34.135045505270455</v>
-      </c>
-      <c r="O3">
-        <v>3.4386750783412765</v>
-      </c>
-      <c r="P3">
-        <v>-33.461513276613118</v>
-      </c>
-      <c r="Q3">
-        <v>-5.3235204008364576</v>
-      </c>
-      <c r="R3">
-        <v>3.6350102419834514</v>
-      </c>
-      <c r="S3">
-        <v>7.9915298277734337</v>
-      </c>
-      <c r="T3">
-        <v>8.7502635947560634</v>
-      </c>
-      <c r="U3">
-        <v>-5.6781467129966643</v>
-      </c>
-      <c r="V3">
-        <v>8.6004094450114792</v>
-      </c>
-      <c r="W3">
-        <v>1.1573345070240322</v>
-      </c>
-      <c r="X3">
-        <v>10.782384068887026</v>
-      </c>
-      <c r="Y3">
-        <v>32.064760129038163</v>
-      </c>
-      <c r="Z3">
-        <v>-1.2246771890410599</v>
-      </c>
-      <c r="AA3">
-        <v>-0.36295964902797095</v>
-      </c>
-      <c r="AB3">
-        <v>-1.9274809916892508</v>
-      </c>
-      <c r="AC3">
-        <v>-0.61949682081481683</v>
-      </c>
-      <c r="AD3">
-        <v>-15.251056178792368</v>
-      </c>
-      <c r="AE3">
-        <v>-7.0276812520025373</v>
-      </c>
-      <c r="AF3">
-        <v>-0.76266098062751553</v>
-      </c>
-      <c r="AG3">
-        <v>9.2406771266542336</v>
-      </c>
-      <c r="AH3">
-        <v>7.1921601766240428</v>
-      </c>
-      <c r="AI3">
-        <v>-0.60578718877246729</v>
-      </c>
-      <c r="AJ3">
-        <v>-0.8497317766054806</v>
-      </c>
-      <c r="AK3">
-        <v>21.459417429409541</v>
-      </c>
-      <c r="AL3">
-        <v>-3.009735947916198</v>
-      </c>
-      <c r="AM3">
-        <v>1.7820797206070438</v>
-      </c>
-      <c r="AN3">
-        <v>-0.10215087317448024</v>
-      </c>
       <c r="AO3">
-        <v>17.425097268467653</v>
+        <v>17.425097293572634</v>
       </c>
       <c r="AP3">
-        <v>-10.914817444201958</v>
+        <v>-10.914817458734575</v>
       </c>
       <c r="AQ3">
-        <v>-5.8337591445543922</v>
+        <v>-5.8337590266512791</v>
       </c>
       <c r="AR3">
-        <v>-3.1917024141108925</v>
+        <v>-3.1917023926192059</v>
       </c>
       <c r="AS3">
-        <v>-1.8440888684193055</v>
+        <v>-1.8440888830756137</v>
       </c>
       <c r="AT3">
-        <v>-6.0926721126469374</v>
+        <v>-6.0926720551303362</v>
       </c>
       <c r="AU3">
-        <v>-3.0210691559580027</v>
+        <v>-3.0210691633430713</v>
       </c>
       <c r="AV3">
-        <v>-2.3274753927668854</v>
+        <v>-2.3274753290598227</v>
       </c>
       <c r="AW3">
-        <v>-6.2742581850414467</v>
+        <v>-6.2742582337340593</v>
       </c>
       <c r="AX3">
-        <v>-33.297782823816718</v>
+        <v>-33.297782861479931</v>
       </c>
       <c r="AY3">
-        <v>22.394861079383602</v>
+        <v>22.394861090884589</v>
       </c>
     </row>
   </sheetData>
